--- a/data/trans_camb/P14B23-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.5163337971494218</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-1.74661101059112</v>
+        <v>-1.746611010591119</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.552592456840422</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.399418998391306</v>
+        <v>-3.653669942738359</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.321151806823435</v>
+        <v>-4.342292947790071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.903167707499454</v>
+        <v>-3.442253175560376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.149106966215545</v>
+        <v>-8.788522075212809</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.414151247302285</v>
+        <v>-2.565778526992697</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.841041959995621</v>
+        <v>-5.591880080482961</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.173521763332232</v>
+        <v>1.953523884554794</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4053397835405816</v>
+        <v>0.4485184016794858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.98229635525308</v>
+        <v>6.92101053131106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.322228170638887</v>
+        <v>-1.392405278745639</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.386670137209275</v>
+        <v>3.618070980561622</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.106261655081179</v>
+        <v>-0.9743155783695748</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.1663633671262634</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.5627601570649376</v>
+        <v>-0.5627601570649375</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.1680221927308375</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.733205190198909</v>
+        <v>-0.7708742661208891</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8794595785102828</v>
+        <v>-0.881095467229129</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3349762165586836</v>
+        <v>-0.3012143486081763</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7272645568887262</v>
+        <v>-0.7179006359549752</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3314097635844767</v>
+        <v>-0.3330143415781986</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7269531595700156</v>
+        <v>-0.7032429917984059</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.40287392356863</v>
+        <v>1.228761713358039</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4246114151646632</v>
+        <v>0.5230904064771795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.019315695010667</v>
+        <v>0.9920928815456537</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1464256021140042</v>
+        <v>-0.2056803833817929</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7426749696929417</v>
+        <v>0.8321422959875276</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2317781140311257</v>
+        <v>-0.1892982437224555</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-0.5354187682514163</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7470658407664545</v>
+        <v>0.7470658407664539</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-1.986167705726331</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.318914487336388</v>
+        <v>-3.269456492517299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.342218265538727</v>
+        <v>-2.268830389753457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.953221075786666</v>
+        <v>-5.53436961204275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.283790690116871</v>
+        <v>-3.375900364978333</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.552375341380958</v>
+        <v>-3.566402840521935</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.989001167308488</v>
+        <v>-1.87252535810409</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.757425838472971</v>
+        <v>1.683211300684716</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.314784494695775</v>
+        <v>3.387853323710732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.36120425446639</v>
+        <v>2.116779429290661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.599933183396077</v>
+        <v>4.187252503917013</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8902549693420796</v>
+        <v>0.8065487217848287</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.661222932367424</v>
+        <v>2.692289358333529</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.1639094240805824</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.228701605119689</v>
+        <v>0.2287016051196888</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1905142370238731</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6449393798648568</v>
+        <v>-0.6629376662875421</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4709576241480111</v>
+        <v>-0.4907938651982765</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4744358364772536</v>
+        <v>-0.4543091189878891</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2637551720449376</v>
+        <v>-0.2709795855007308</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4207471499152073</v>
+        <v>-0.4343052857148387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2446426372597806</v>
+        <v>-0.2240002283459741</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.048820026732555</v>
+        <v>1.002587476578848</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.834209615859374</v>
+        <v>1.838887694368962</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1736906491749546</v>
+        <v>0.2703828488711748</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4281840538727825</v>
+        <v>0.5124566899557741</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.153559576546382</v>
+        <v>0.1467428954014385</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4667356543720742</v>
+        <v>0.467810247778979</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>-1.519939161409794</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.428517282562305</v>
+        <v>1.428517282562303</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.522860514054584</v>
+        <v>-4.474029995106834</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1632386818056188</v>
+        <v>-0.3024629038435712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.023184788281773</v>
+        <v>-4.529506898970559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.390198014088911</v>
+        <v>-3.713436756878172</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.793767804994551</v>
+        <v>-3.677113784343083</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8252110882332551</v>
+        <v>-0.8658362773018158</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.2703235829845728</v>
+        <v>-0.2611670028455485</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.920186318876655</v>
+        <v>5.983409202613888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.554865186755197</v>
+        <v>2.879207223942999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.345140509464792</v>
+        <v>3.180238558713502</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.534431598294472</v>
+        <v>0.7189656400089476</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.712786782611075</v>
+        <v>3.664478647970677</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>-0.3241474668472129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.304650521709396</v>
+        <v>0.3046505217093955</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9361922227814992</v>
+        <v>-0.9374701021829968</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1232233873734649</v>
+        <v>-0.09172875105819076</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5946150917143577</v>
+        <v>-0.5677088736911441</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3999425579493837</v>
+        <v>-0.4216107454880593</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6339974149008539</v>
+        <v>-0.623433848600632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1493487511813469</v>
+        <v>-0.1476661972846021</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2503123536952696</v>
+        <v>0.0530890396857025</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.288829714942958</v>
+        <v>3.420807881956475</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6001762133473831</v>
+        <v>0.6852727263152674</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8363720270002799</v>
+        <v>0.7194184890409435</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1923744931318451</v>
+        <v>0.2214342281908821</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.092773491993858</v>
+        <v>0.9873222320568126</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-3.998444564824467</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.03132268574913832</v>
+        <v>-0.03132268574913694</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-1.631244473359147</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.097334021868293</v>
+        <v>2.097334021868291</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5726940184068796</v>
+        <v>-0.5292740626260128</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.934611646645581</v>
+        <v>1.914391599169375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.705690510999181</v>
+        <v>-7.518378064345652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.649920100261094</v>
+        <v>-4.221144026429656</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.610303247350561</v>
+        <v>-3.561610128029971</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1657266636243581</v>
+        <v>-0.3376478366867994</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.4243112016401</v>
+        <v>2.209899194228791</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.469625852393339</v>
+        <v>7.592671000274291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3413062354174893</v>
+        <v>-0.6205818042961981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.62432336311775</v>
+        <v>3.263727769973626</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2971941884039373</v>
+        <v>0.4640869280249198</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.404770630829381</v>
+        <v>4.354320188474669</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.46465901157068</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.003640007498909162</v>
+        <v>-0.003640007498909</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.3510764719212981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4513882749418591</v>
+        <v>0.4513882749418588</v>
       </c>
     </row>
     <row r="26">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>0.667917283156832</v>
+        <v>0.9237573161190615</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7143193852201862</v>
+        <v>-0.7056366202537252</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.340887217256627</v>
+        <v>-0.3697553448251137</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6289159126796682</v>
+        <v>-0.6267437494411092</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03980264918160824</v>
+        <v>-0.09653437273406876</v>
       </c>
     </row>
     <row r="27">
@@ -1219,16 +1219,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>-0.01594112665407812</v>
+        <v>-0.07263733408093333</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.576234017286402</v>
+        <v>0.4964918760997531</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09278950095212109</v>
+        <v>0.1700566389147495</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.286668777142285</v>
+        <v>1.193228828836889</v>
       </c>
     </row>
     <row r="28">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.973469609104649</v>
+        <v>-2.110542411709713</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.672308826001134</v>
+        <v>-5.54534213340614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.36525255185723</v>
+        <v>-14.12311490599869</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-17.05081985434864</v>
+        <v>-17.54288747548694</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.968998961043024</v>
+        <v>-7.10938630569615</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.42972510838564</v>
+        <v>-10.25408606050972</v>
       </c>
     </row>
     <row r="30">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.918642625436394</v>
+        <v>5.561247259159805</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1404962325062049</v>
+        <v>-0.002791498130503545</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.829039447490768</v>
+        <v>-1.871711135692444</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-6.4864498628734</v>
+        <v>-6.638173477584871</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.433252885843906</v>
+        <v>0.5940856758169685</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.232782726391867</v>
+        <v>-4.220076655073836</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>-0.4895138141363919</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.7339081157827952</v>
+        <v>-0.7339081157827951</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.3243792678492206</v>
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4989750409193154</v>
+        <v>-0.5030829294635161</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9239694547543843</v>
+        <v>-0.9248901039421851</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7092655682321036</v>
+        <v>-0.7133093995862231</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8384302874384535</v>
+        <v>-0.8468574547506906</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5858642879780993</v>
+        <v>-0.5838463175592083</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8308679262983842</v>
+        <v>-0.8270638047492476</v>
       </c>
     </row>
     <row r="33">
@@ -1373,22 +1373,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.047649479991064</v>
+        <v>3.098618685588284</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7367274852612519</v>
+        <v>0.2618596669752544</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1063082102587126</v>
+        <v>-0.1192409053741951</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.5565062865322128</v>
+        <v>-0.5455471393745785</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06642871274693184</v>
+        <v>0.09294555749564956</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5296778659466223</v>
+        <v>-0.5377915043508104</v>
       </c>
     </row>
     <row r="34">
@@ -1412,7 +1412,7 @@
         <v>1.320271395966197</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-1.48605837203057</v>
+        <v>-1.486058372030573</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.4303920679587868</v>
@@ -1429,22 +1429,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.094070017959027</v>
+        <v>-4.857793186153113</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.263007896702547</v>
+        <v>-0.980330695777935</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.808171930734636</v>
+        <v>-4.165174881246847</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.705553046124804</v>
+        <v>-5.991835585231532</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.193550465673199</v>
+        <v>-3.178594222264596</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.292262956231375</v>
+        <v>-2.419912692380067</v>
       </c>
     </row>
     <row r="36">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.2098034511394306</v>
+        <v>-0.1851259600641693</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.108569694225655</v>
+        <v>5.288534494807502</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.060843507917498</v>
+        <v>6.351536324177618</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.137057240776802</v>
+        <v>2.205993206833367</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.206360088619252</v>
+        <v>2.620953568532122</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.68673423484852</v>
+        <v>2.85928027921779</v>
       </c>
     </row>
     <row r="37">
@@ -1490,7 +1490,7 @@
         <v>0.1549071109981341</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.1743588552241421</v>
+        <v>-0.1743588552241424</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.07268819620801059</v>
@@ -1507,22 +1507,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.9411872446878664</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3076486220021875</v>
+        <v>-0.2123959588805631</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3506945745593801</v>
+        <v>-0.3728079283533694</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5240987303100306</v>
+        <v>-0.5189651764479308</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4330913439993807</v>
+        <v>-0.4308071534379109</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3123251900243016</v>
+        <v>-0.3300104257283815</v>
       </c>
     </row>
     <row r="39">
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2227620349754738</v>
+        <v>0.333805103445998</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.598592531345519</v>
+        <v>2.716249490848023</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.006693899897669</v>
+        <v>1.015828440576231</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3311046728076482</v>
+        <v>0.3974806521085307</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4671387316521404</v>
+        <v>0.5850156124524378</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6235976950958685</v>
+        <v>0.6427615920382186</v>
       </c>
     </row>
     <row r="40">
@@ -1566,7 +1566,7 @@
         <v>-1.41904316433168</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.429260627578901</v>
+        <v>2.429260627578902</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-1.582701478004584</v>
@@ -1578,7 +1578,7 @@
         <v>-1.497096928435248</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.621390304217746</v>
+        <v>3.621390304217748</v>
       </c>
     </row>
     <row r="41">
@@ -1589,22 +1589,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.015801581509713</v>
+        <v>-2.984759819151592</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.1035367205053734</v>
+        <v>0.2110577406177106</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.875347793014926</v>
+        <v>-3.891308667808589</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.774009200223026</v>
+        <v>2.023724566270992</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.979800151680209</v>
+        <v>-2.908606574048994</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.99412697193163</v>
+        <v>1.896384975164708</v>
       </c>
     </row>
     <row r="42">
@@ -1615,22 +1615,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.08088071561375128</v>
+        <v>0.03533849135391327</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.647176367064183</v>
+        <v>4.803931591023901</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.036028785988417</v>
+        <v>0.7182288561981277</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.262731712728182</v>
+        <v>7.414922083365361</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.05625845953698225</v>
+        <v>-0.05881939972023161</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.564513867304347</v>
+        <v>5.426640394328397</v>
       </c>
     </row>
     <row r="43">
@@ -1644,7 +1644,7 @@
         <v>-0.5613892165017035</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.9610424507680428</v>
+        <v>0.9610424507680431</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.2743833012254102</v>
@@ -1656,7 +1656,7 @@
         <v>-0.3578279386225324</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8655649496657885</v>
+        <v>0.8655649496657888</v>
       </c>
     </row>
     <row r="44">
@@ -1667,22 +1667,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8670053575658242</v>
+        <v>-0.8591061309628125</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06133699344344754</v>
+        <v>0.01767371265120403</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5739876206037055</v>
+        <v>-0.5699582621836033</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2430838191626521</v>
+        <v>0.2749988170453331</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6019856943315385</v>
+        <v>-0.5938832475087581</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4056221885533248</v>
+        <v>0.3678748748653005</v>
       </c>
     </row>
     <row r="45">
@@ -1693,22 +1693,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1951964845228023</v>
+        <v>0.1861267390826288</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.536754087838973</v>
+        <v>2.671621540516206</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.240474293208908</v>
+        <v>0.1615159250080821</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.657852702870638</v>
+        <v>1.648313220570564</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01622983447760539</v>
+        <v>-0.01275210444152809</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.687406885883607</v>
+        <v>1.624415264290965</v>
       </c>
     </row>
     <row r="46">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.264545771215361</v>
+        <v>-1.163053410926308</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.6340339843200969</v>
+        <v>-0.7822861373548012</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.042809119363824</v>
+        <v>-1.92704733824678</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.418534310406715</v>
+        <v>-1.386971611868498</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.26844250608015</v>
+        <v>-1.144648533809258</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.4405145995145411</v>
+        <v>-0.4927395973848981</v>
       </c>
     </row>
     <row r="48">
@@ -1775,22 +1775,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.660195735797136</v>
+        <v>1.829951351664496</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.409494144735219</v>
+        <v>2.348557178755194</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.736830049659934</v>
+        <v>2.855487299423696</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.059284504017016</v>
+        <v>3.276483700965965</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.693815121524773</v>
+        <v>1.758817941661079</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.253175438684871</v>
+        <v>2.334714452792825</v>
       </c>
     </row>
     <row r="49">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4929722722598224</v>
+        <v>-0.4250503500520491</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2548177888335341</v>
+        <v>-0.3347774682077245</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2841584905334632</v>
+        <v>-0.2827677998480134</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1997707155597453</v>
+        <v>-0.1898859952002985</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.277467329390737</v>
+        <v>-0.2386215883298309</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.08821450488682388</v>
+        <v>-0.1052667736747824</v>
       </c>
     </row>
     <row r="51">
@@ -1853,22 +1853,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.378812725153511</v>
+        <v>1.781909416502859</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.073911620313331</v>
+        <v>1.768964640613748</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5684244247142093</v>
+        <v>0.6242524514264053</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6467578605561258</v>
+        <v>0.6606126422715008</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4856120210742205</v>
+        <v>0.5247237185049843</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7104345478648324</v>
+        <v>0.7076150502126264</v>
       </c>
     </row>
     <row r="52">
@@ -1898,7 +1898,7 @@
         <v>-0.9166881665887805</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.6680804653658911</v>
+        <v>0.6680804653658896</v>
       </c>
     </row>
     <row r="53">
@@ -1909,22 +1909,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.239182449129804</v>
+        <v>-1.331968621906693</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.4861387495958867</v>
+        <v>0.5030243036113927</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.547443438339435</v>
+        <v>-2.620447542053252</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.28854355747831</v>
+        <v>-1.195174547698145</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.633850521370033</v>
+        <v>-1.69224809535551</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.08304362618966156</v>
+        <v>-0.186218734947011</v>
       </c>
     </row>
     <row r="54">
@@ -1935,22 +1935,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.2560800864553919</v>
+        <v>0.179324666588675</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.315857967276955</v>
+        <v>2.327826513338477</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.09781919174750933</v>
+        <v>-0.09739749269000213</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.086398224993618</v>
+        <v>1.325922222426646</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.2054624942343628</v>
+        <v>-0.1479457332728328</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.425408836452498</v>
+        <v>1.343471602094273</v>
       </c>
     </row>
     <row r="55">
@@ -1976,7 +1976,7 @@
         <v>-0.172652822346914</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.125829024639307</v>
+        <v>0.1258290246393067</v>
       </c>
     </row>
     <row r="56">
@@ -1987,22 +1987,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.420517565699397</v>
+        <v>-0.4423028195070473</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1688504372387031</v>
+        <v>0.1707960775590812</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2955707887159021</v>
+        <v>-0.301287209390327</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1459432390835071</v>
+        <v>-0.1351214929287678</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2889037314151521</v>
+        <v>-0.2965193911158898</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.01510570597052007</v>
+        <v>-0.03355884915571581</v>
       </c>
     </row>
     <row r="57">
@@ -2013,22 +2013,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1288900453281654</v>
+        <v>0.08231626687328179</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.07812479474721</v>
+        <v>1.117094436129067</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.01067489510574136</v>
+        <v>-0.006335711388709116</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1450986037402701</v>
+        <v>0.1863098693633375</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.0411493951158665</v>
+        <v>-0.03141726786654801</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2911802078722934</v>
+        <v>0.2714989015624624</v>
       </c>
     </row>
     <row r="58">
